--- a/kargar/300-RCM KARGAR.xlsx
+++ b/kargar/300-RCM KARGAR.xlsx
@@ -1,32 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\m.kargar\RCM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\H.haddadniya\RCM\مهندس کارگر\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0A4956-D7C0-4A59-810B-FA4B30C27C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5865" yWindow="1380" windowWidth="20820" windowHeight="11910" firstSheet="4" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5865" yWindow="1380" windowWidth="20820" windowHeight="11910" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="310SC1" sheetId="2" r:id="rId1"/>
-    <sheet name="310GA1" sheetId="5" r:id="rId2"/>
-    <sheet name="310GA2" sheetId="7" r:id="rId3"/>
-    <sheet name="310GA3" sheetId="1" r:id="rId4"/>
-    <sheet name="310FE1" sheetId="3" r:id="rId5"/>
-    <sheet name="310FE2" sheetId="4" r:id="rId6"/>
-    <sheet name="310BF1" sheetId="8" r:id="rId7"/>
-    <sheet name="310BF2" sheetId="9" r:id="rId8"/>
-    <sheet name="310BF3" sheetId="10" r:id="rId9"/>
-    <sheet name="310BE1" sheetId="11" r:id="rId10"/>
-    <sheet name="310SL01" sheetId="12" r:id="rId11"/>
-    <sheet name="310SL02" sheetId="13" r:id="rId12"/>
+    <sheet name="0310SC01" sheetId="2" r:id="rId1"/>
+    <sheet name="0310GA01" sheetId="5" r:id="rId2"/>
+    <sheet name="0310GA02" sheetId="7" r:id="rId3"/>
+    <sheet name="0310GA03" sheetId="1" r:id="rId4"/>
+    <sheet name="0310FE01" sheetId="3" r:id="rId5"/>
+    <sheet name="0310FE02" sheetId="4" r:id="rId6"/>
+    <sheet name="0310BF01" sheetId="8" r:id="rId7"/>
+    <sheet name="0310BF02" sheetId="9" r:id="rId8"/>
+    <sheet name="0310BF03" sheetId="10" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="444">
   <si>
     <t>Asset Number</t>
   </si>
@@ -1368,232 +1364,31 @@
   </si>
   <si>
     <t>M0310BF0303030</t>
-  </si>
-  <si>
-    <t>0310BE01</t>
-  </si>
-  <si>
-    <t>HEAD SHAFT</t>
-  </si>
-  <si>
-    <t>TAIL SHAFT</t>
-  </si>
-  <si>
-    <t>COUPLING</t>
-  </si>
-  <si>
-    <t>MOTOR BASE</t>
-  </si>
-  <si>
-    <t>BACK STOP</t>
-  </si>
-  <si>
-    <t>SPROCKET</t>
-  </si>
-  <si>
-    <t>DUST SEAL</t>
-  </si>
-  <si>
-    <t>TACK UP UNIT</t>
-  </si>
-  <si>
-    <t>CHARGE SPOUT</t>
-  </si>
-  <si>
-    <t>DISCHARGE SPOUT</t>
-  </si>
-  <si>
-    <t>DEDUSTING HOOD</t>
-  </si>
-  <si>
-    <t>INSPECTION DOOR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHAIN </t>
-  </si>
-  <si>
-    <t>BUCKET</t>
-  </si>
-  <si>
-    <t>CONVEYOR CHAIN</t>
-  </si>
-  <si>
-    <t>SHAFT SIDE HUB</t>
-  </si>
-  <si>
-    <t>TRANSMITION PART</t>
-  </si>
-  <si>
-    <t>ADAPTER SLEEVE</t>
-  </si>
-  <si>
-    <t>CASING SUPPORT</t>
-  </si>
-  <si>
-    <t>DUST FLANGE</t>
-  </si>
-  <si>
-    <t>FONDATION</t>
-  </si>
-  <si>
-    <t>M0310BE0100000</t>
-  </si>
-  <si>
-    <t>M0310BE0101000</t>
-  </si>
-  <si>
-    <t>M0310BE0102000</t>
-  </si>
-  <si>
-    <t>M0310BE0103000</t>
-  </si>
-  <si>
-    <t>M0310BE0104000</t>
-  </si>
-  <si>
-    <t>M0310BE0105000</t>
-  </si>
-  <si>
-    <t>M0310BE0106000</t>
-  </si>
-  <si>
-    <t>M0310BE0101010</t>
-  </si>
-  <si>
-    <t>M0310BE0101020</t>
-  </si>
-  <si>
-    <t>M0310BE0101030</t>
-  </si>
-  <si>
-    <t>M0310BE0101040</t>
-  </si>
-  <si>
-    <t>M0310BE0101021</t>
-  </si>
-  <si>
-    <t>M0310BE0101022</t>
-  </si>
-  <si>
-    <t>M0310BE0101023</t>
-  </si>
-  <si>
-    <t>M0310BE0101024</t>
-  </si>
-  <si>
-    <t>M0310BE0102010</t>
-  </si>
-  <si>
-    <t>M0310BE0102020</t>
-  </si>
-  <si>
-    <t>M0310BE0102030</t>
-  </si>
-  <si>
-    <t>M0310BE0102040</t>
-  </si>
-  <si>
-    <t>M0310BE0102031</t>
-  </si>
-  <si>
-    <t>M0310BE0102032</t>
-  </si>
-  <si>
-    <t>M0310BE0102033</t>
-  </si>
-  <si>
-    <t>M0310BE0103010</t>
-  </si>
-  <si>
-    <t>M0310BE0103020</t>
-  </si>
-  <si>
-    <t>M0310BE0103030</t>
-  </si>
-  <si>
-    <t>M0310BE0103040</t>
-  </si>
-  <si>
-    <t>M0310BE0104010</t>
-  </si>
-  <si>
-    <t>M0310BE0104020</t>
-  </si>
-  <si>
-    <t>M0310BE0104030</t>
-  </si>
-  <si>
-    <t>M0310BE0104040</t>
-  </si>
-  <si>
-    <t>M0310BE0104050</t>
-  </si>
-  <si>
-    <t>M0310BE0104011</t>
-  </si>
-  <si>
-    <t>M0310BE0104012</t>
-  </si>
-  <si>
-    <t>M0310BE0105010</t>
-  </si>
-  <si>
-    <t>M0310BE0105020</t>
-  </si>
-  <si>
-    <t>M0310BE0106010</t>
-  </si>
-  <si>
-    <t>0310SL01</t>
-  </si>
-  <si>
-    <t>HOPPER STRUCTURE</t>
-  </si>
-  <si>
-    <t>BIN BODY</t>
-  </si>
-  <si>
-    <t>SMALL BIN</t>
-  </si>
-  <si>
-    <t>AERATION UNIT</t>
-  </si>
-  <si>
-    <t>WALKWAY</t>
-  </si>
-  <si>
-    <t>PANCHED PLATE</t>
-  </si>
-  <si>
-    <t>CANVAS</t>
-  </si>
-  <si>
-    <t>SEAL WASHER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1621,7 +1416,7 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1629,7 +1424,7 @@
       <b/>
       <sz val="20"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1637,14 +1432,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1652,20 +1447,20 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2090,30 +1885,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F36DF0-4F04-4D83-8A2D-9D6F0D8E51D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="A1:K40"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +1943,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25">
       <c r="B2" s="7" t="s">
         <v>44</v>
       </c>
@@ -2159,7 +1954,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B3" s="8" t="s">
         <v>44</v>
       </c>
@@ -2179,7 +1974,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B4" s="10" t="s">
         <v>44</v>
       </c>
@@ -2199,7 +1994,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B5" s="10" t="s">
         <v>45</v>
       </c>
@@ -2219,7 +2014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B6" s="10" t="s">
         <v>44</v>
       </c>
@@ -2239,7 +2034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1">
       <c r="B7" s="9" t="s">
         <v>44</v>
       </c>
@@ -2259,7 +2054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
         <v>44</v>
       </c>
@@ -2279,7 +2074,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>44</v>
       </c>
@@ -2299,7 +2094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>44</v>
       </c>
@@ -2319,7 +2114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -2339,7 +2134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
@@ -2359,7 +2154,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1">
       <c r="B13" s="9" t="s">
         <v>44</v>
       </c>
@@ -2379,7 +2174,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1">
       <c r="B14" s="9" t="s">
         <v>44</v>
       </c>
@@ -2399,7 +2194,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1">
       <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
@@ -2419,7 +2214,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1">
       <c r="B16" s="9" t="s">
         <v>44</v>
       </c>
@@ -2439,7 +2234,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="9" customFormat="1">
       <c r="B17" s="9" t="s">
         <v>44</v>
       </c>
@@ -2459,7 +2254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="9" customFormat="1">
       <c r="B18" s="9" t="s">
         <v>44</v>
       </c>
@@ -2479,7 +2274,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B19" s="10" t="s">
         <v>44</v>
       </c>
@@ -2499,7 +2294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="9" customFormat="1">
       <c r="B20" s="9" t="s">
         <v>44</v>
       </c>
@@ -2519,7 +2314,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="9" customFormat="1">
       <c r="B21" s="9" t="s">
         <v>44</v>
       </c>
@@ -2539,7 +2334,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B22" s="8" t="s">
         <v>44</v>
       </c>
@@ -2559,7 +2354,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B23" s="10" t="s">
         <v>44</v>
       </c>
@@ -2579,7 +2374,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B24" s="10" t="s">
         <v>44</v>
       </c>
@@ -2599,7 +2394,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="9" customFormat="1">
       <c r="B25" s="9" t="s">
         <v>44</v>
       </c>
@@ -2619,7 +2414,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B26" s="10" t="s">
         <v>44</v>
       </c>
@@ -2639,7 +2434,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="9" customFormat="1">
       <c r="B27" s="9" t="s">
         <v>44</v>
       </c>
@@ -2659,7 +2454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B28" s="10" t="s">
         <v>44</v>
       </c>
@@ -2679,7 +2474,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" s="9" customFormat="1">
       <c r="B29" s="9" t="s">
         <v>44</v>
       </c>
@@ -2699,7 +2494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B30" s="10" t="s">
         <v>44</v>
       </c>
@@ -2719,7 +2514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B31" s="10" t="s">
         <v>44</v>
       </c>
@@ -2739,7 +2534,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
@@ -2759,7 +2554,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" s="9" customFormat="1">
       <c r="B33" s="9" t="s">
         <v>44</v>
       </c>
@@ -2779,7 +2574,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B34" s="10" t="s">
         <v>44</v>
       </c>
@@ -2799,7 +2594,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" s="9" customFormat="1">
       <c r="B35" s="9" t="s">
         <v>44</v>
       </c>
@@ -2819,7 +2614,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B36" s="8" t="s">
         <v>44</v>
       </c>
@@ -2839,7 +2634,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B37" s="10" t="s">
         <v>44</v>
       </c>
@@ -2859,7 +2654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B38" s="10" t="s">
         <v>44</v>
       </c>
@@ -2879,7 +2674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B39" s="10" t="s">
         <v>44</v>
       </c>
@@ -2899,7 +2694,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B40" s="10" t="s">
         <v>44</v>
       </c>
@@ -2925,31 +2720,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F10E193-E563-4A46-A0EF-032B24E76949}">
-  <dimension ref="A1:K40"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="47" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2984,1097 +2778,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>444</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>467</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="10">
-        <v>8</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="10">
-        <v>8</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="9">
-        <v>9</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>460</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="9">
-        <v>9</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="9">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="9">
-        <v>9</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="10">
-        <v>8</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="H10" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>449</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="10">
-        <v>8</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10">
-        <v>8</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10">
-        <v>8</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>482</v>
-      </c>
-      <c r="H14" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="10">
-        <v>8</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="9">
-        <v>9</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="9">
-        <v>9</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="9">
-        <v>9</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="10">
-        <v>8</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="8">
-        <v>7</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="10">
-        <v>8</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="10">
-        <v>8</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="10">
-        <v>8</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="10">
-        <v>8</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="9">
-        <v>9</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="9">
-        <v>9</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="9">
-        <v>9</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="8">
-        <v>7</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>470</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B29" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E29" s="10">
-        <v>8</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>463</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="9">
-        <v>9</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>464</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="9">
-        <v>9</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B32" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E32" s="10">
-        <v>8</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="10">
-        <v>8</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>455</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="10">
-        <v>8</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B35" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E35" s="10">
-        <v>8</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B36" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>459</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="8">
-        <v>7</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="10">
-        <v>8</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>499</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B38" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E38" s="10">
-        <v>8</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B39" s="8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="8">
-        <v>7</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>472</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E40" s="10">
-        <v>8</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>472</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB293FE-3033-47AD-B917-C6C4A8A2FA51}">
-  <dimension ref="A1:K14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="47" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>503</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>506</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>510</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>406</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>502</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="10">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27257E8E-71FB-47D5-A46D-66434E1EBBA2}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E0F86A3-6C7B-4994-ADF4-CA6EC33665BC}">
-  <dimension ref="A1:K57"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>9</v>
@@ -4093,7 +2797,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="23.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>9</v>
@@ -4118,7 +2822,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.75">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -4143,7 +2847,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>9</v>
@@ -4168,7 +2872,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>9</v>
@@ -4193,7 +2897,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>9</v>
@@ -4218,7 +2922,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>9</v>
@@ -4243,7 +2947,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
@@ -4263,7 +2967,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
@@ -4283,7 +2987,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -4303,7 +3007,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18.75">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>9</v>
@@ -4328,7 +3032,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
@@ -4352,7 +3056,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4376,7 +3080,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
@@ -4400,7 +3104,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>9</v>
@@ -4425,7 +3129,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>9</v>
@@ -4450,7 +3154,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>9</v>
@@ -4475,7 +3179,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>9</v>
@@ -4500,7 +3204,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>9</v>
@@ -4525,7 +3229,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="18.75">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>9</v>
@@ -4550,7 +3254,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18.75">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>9</v>
@@ -4575,7 +3279,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1">
       <c r="B23" s="9" t="s">
         <v>9</v>
       </c>
@@ -4595,7 +3299,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>9</v>
@@ -4620,7 +3324,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>9</v>
@@ -4645,7 +3349,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B26" s="10" t="s">
         <v>9</v>
       </c>
@@ -4665,7 +3369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="9" customFormat="1">
       <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
@@ -4685,7 +3389,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>9</v>
@@ -4710,7 +3414,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>9</v>
@@ -4735,7 +3439,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
         <v>9</v>
@@ -4760,31 +3464,6 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4792,29 +3471,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2BC4A1E-C6EC-4481-B182-0F9A8F376C0F}">
-  <dimension ref="A1:K57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="105" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4849,7 +3528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="26.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7" t="s">
         <v>226</v>
@@ -4868,7 +3547,7 @@
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
     </row>
-    <row r="3" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="23.25">
       <c r="A3" s="8"/>
       <c r="B3" s="8" t="s">
         <v>226</v>
@@ -4893,7 +3572,7 @@
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="18.75">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
         <v>226</v>
@@ -4918,7 +3597,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>226</v>
@@ -4943,7 +3622,7 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
         <v>226</v>
@@ -4968,7 +3647,7 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
         <v>226</v>
@@ -4993,7 +3672,7 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
     </row>
-    <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="18.75">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>226</v>
@@ -5018,7 +3697,7 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>226</v>
       </c>
@@ -5038,7 +3717,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>226</v>
       </c>
@@ -5058,7 +3737,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="9" customFormat="1">
       <c r="B11" s="9" t="s">
         <v>226</v>
       </c>
@@ -5078,7 +3757,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="18.75">
       <c r="A12" s="10"/>
       <c r="B12" s="10" t="s">
         <v>226</v>
@@ -5103,7 +3782,7 @@
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" s="9" t="s">
         <v>226</v>
       </c>
@@ -5127,7 +3806,7 @@
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="B14" s="9" t="s">
         <v>226</v>
       </c>
@@ -5151,7 +3830,7 @@
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" s="9" t="s">
         <v>226</v>
       </c>
@@ -5175,7 +3854,7 @@
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>226</v>
@@ -5200,7 +3879,7 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="9"/>
       <c r="B17" s="9" t="s">
         <v>226</v>
@@ -5225,7 +3904,7 @@
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
     </row>
-    <row r="18" spans="1:11" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="23.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>226</v>
@@ -5250,7 +3929,7 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
     </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="18.75">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>226</v>
@@ -5275,7 +3954,7 @@
       <c r="J19" s="10"/>
       <c r="K19" s="10"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11">
       <c r="A20" s="9"/>
       <c r="B20" s="9" t="s">
         <v>226</v>
@@ -5300,7 +3979,7 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
     </row>
-    <row r="21" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="18.75">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>226</v>
@@ -5325,7 +4004,7 @@
       <c r="J21" s="10"/>
       <c r="K21" s="10"/>
     </row>
-    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="18.75">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>226</v>
@@ -5350,7 +4029,7 @@
       <c r="J22" s="10"/>
       <c r="K22" s="10"/>
     </row>
-    <row r="23" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" s="9" customFormat="1">
       <c r="B23" s="9" t="s">
         <v>226</v>
       </c>
@@ -5370,7 +4049,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" s="12" customFormat="1">
       <c r="A24" s="9"/>
       <c r="B24" s="9" t="s">
         <v>226</v>
@@ -5395,7 +4074,7 @@
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
     </row>
-    <row r="25" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" s="12" customFormat="1">
       <c r="A25" s="9"/>
       <c r="B25" s="9" t="s">
         <v>226</v>
@@ -5420,7 +4099,7 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
     </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B26" s="10" t="s">
         <v>226</v>
       </c>
@@ -5440,7 +4119,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" s="9" customFormat="1">
       <c r="B27" s="9" t="s">
         <v>226</v>
       </c>
@@ -5460,7 +4139,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" s="12" customFormat="1">
       <c r="A28" s="9"/>
       <c r="B28" s="9" t="s">
         <v>226</v>
@@ -5485,7 +4164,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
     </row>
-    <row r="29" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" s="12" customFormat="1">
       <c r="A29" s="9"/>
       <c r="B29" s="9" t="s">
         <v>226</v>
@@ -5510,7 +4189,7 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
     </row>
-    <row r="30" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" s="12" customFormat="1">
       <c r="A30" s="9"/>
       <c r="B30" s="9" t="s">
         <v>226</v>
@@ -5535,60 +4214,35 @@
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
     </row>
-    <row r="33" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.875" customWidth="1"/>
+    <col min="2" max="2" width="18.125" style="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="98.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5623,7 +4277,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25">
       <c r="B2" s="7" t="s">
         <v>256</v>
       </c>
@@ -5634,7 +4288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B3" s="8" t="s">
         <v>256</v>
       </c>
@@ -5654,7 +4308,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B4" s="10" t="s">
         <v>256</v>
       </c>
@@ -5674,7 +4328,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B5" s="10" t="s">
         <v>256</v>
       </c>
@@ -5694,7 +4348,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B6" s="10" t="s">
         <v>256</v>
       </c>
@@ -5714,7 +4368,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B7" s="10" t="s">
         <v>256</v>
       </c>
@@ -5734,7 +4388,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B8" s="10" t="s">
         <v>256</v>
       </c>
@@ -5754,7 +4408,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B9" s="10" t="s">
         <v>256</v>
       </c>
@@ -5774,7 +4428,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B10" s="10" t="s">
         <v>256</v>
       </c>
@@ -5794,7 +4448,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B11" s="10" t="s">
         <v>256</v>
       </c>
@@ -5814,7 +4468,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B12" s="10" t="s">
         <v>256</v>
       </c>
@@ -5834,7 +4488,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B13" s="10" t="s">
         <v>256</v>
       </c>
@@ -5854,7 +4508,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B14" s="8" t="s">
         <v>256</v>
       </c>
@@ -5874,7 +4528,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B15" s="10" t="s">
         <v>256</v>
       </c>
@@ -5894,7 +4548,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B16" s="10" t="s">
         <v>256</v>
       </c>
@@ -5914,7 +4568,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B17" s="10" t="s">
         <v>256</v>
       </c>
@@ -5934,7 +4588,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B18" s="8" t="s">
         <v>256</v>
       </c>
@@ -5961,30 +4615,30 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51751C2-26B4-4BCD-AFA2-F16BA1B962C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6019,7 +4673,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25">
       <c r="B2" s="7" t="s">
         <v>105</v>
       </c>
@@ -6030,7 +4684,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B3" s="8" t="s">
         <v>105</v>
       </c>
@@ -6050,7 +4704,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B4" s="10" t="s">
         <v>105</v>
       </c>
@@ -6070,7 +4724,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B5" s="10" t="s">
         <v>105</v>
       </c>
@@ -6090,7 +4744,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B6" s="10" t="s">
         <v>105</v>
       </c>
@@ -6110,7 +4764,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1">
       <c r="B7" s="9" t="s">
         <v>105</v>
       </c>
@@ -6130,7 +4784,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
         <v>105</v>
       </c>
@@ -6150,7 +4804,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>105</v>
       </c>
@@ -6170,7 +4824,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
@@ -6190,7 +4844,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B11" s="8" t="s">
         <v>105</v>
       </c>
@@ -6210,7 +4864,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B12" s="10" t="s">
         <v>105</v>
       </c>
@@ -6230,7 +4884,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1">
       <c r="B13" s="9" t="s">
         <v>105</v>
       </c>
@@ -6250,7 +4904,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1">
       <c r="B14" s="9" t="s">
         <v>105</v>
       </c>
@@ -6270,7 +4924,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B15" s="10" t="s">
         <v>105</v>
       </c>
@@ -6290,7 +4944,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B16" s="10" t="s">
         <v>105</v>
       </c>
@@ -6310,7 +4964,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B17" s="10" t="s">
         <v>105</v>
       </c>
@@ -6330,7 +4984,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B18" s="10" t="s">
         <v>105</v>
       </c>
@@ -6350,7 +5004,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B19" s="10" t="s">
         <v>105</v>
       </c>
@@ -6370,7 +5024,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B20" s="8" t="s">
         <v>105</v>
       </c>
@@ -6390,7 +5044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B21" s="10" t="s">
         <v>105</v>
       </c>
@@ -6410,7 +5064,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B22" s="10" t="s">
         <v>105</v>
       </c>
@@ -6430,7 +5084,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="9" customFormat="1">
       <c r="B23" s="9" t="s">
         <v>105</v>
       </c>
@@ -6450,7 +5104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B24" s="10" t="s">
         <v>105</v>
       </c>
@@ -6470,7 +5124,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B25" s="10" t="s">
         <v>105</v>
       </c>
@@ -6490,7 +5144,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B26" s="10" t="s">
         <v>105</v>
       </c>
@@ -6510,7 +5164,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B27" s="10" t="s">
         <v>105</v>
       </c>
@@ -6530,7 +5184,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="9" customFormat="1">
       <c r="B28" s="9" t="s">
         <v>105</v>
       </c>
@@ -6550,7 +5204,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B29" s="10" t="s">
         <v>105</v>
       </c>
@@ -6570,7 +5224,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="9" customFormat="1">
       <c r="B30" s="9" t="s">
         <v>105</v>
       </c>
@@ -6597,30 +5251,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F72269C9-C61A-4702-85DF-7BFBAD616A57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6655,7 +5309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25">
       <c r="B2" s="7" t="s">
         <v>178</v>
       </c>
@@ -6666,7 +5320,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B3" s="8" t="s">
         <v>178</v>
       </c>
@@ -6686,7 +5340,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B4" s="10" t="s">
         <v>178</v>
       </c>
@@ -6706,7 +5360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B5" s="10" t="s">
         <v>178</v>
       </c>
@@ -6726,7 +5380,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B6" s="10" t="s">
         <v>178</v>
       </c>
@@ -6746,7 +5400,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1">
       <c r="B7" s="9" t="s">
         <v>178</v>
       </c>
@@ -6766,7 +5420,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
         <v>178</v>
       </c>
@@ -6786,7 +5440,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>178</v>
       </c>
@@ -6806,7 +5460,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>178</v>
       </c>
@@ -6826,7 +5480,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B11" s="8" t="s">
         <v>178</v>
       </c>
@@ -6846,7 +5500,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B12" s="10" t="s">
         <v>178</v>
       </c>
@@ -6866,7 +5520,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="9" customFormat="1">
       <c r="B13" s="9" t="s">
         <v>178</v>
       </c>
@@ -6886,7 +5540,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="9" customFormat="1">
       <c r="B14" s="9" t="s">
         <v>178</v>
       </c>
@@ -6906,7 +5560,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B15" s="10" t="s">
         <v>178</v>
       </c>
@@ -6926,7 +5580,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B16" s="10" t="s">
         <v>178</v>
       </c>
@@ -6946,7 +5600,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B17" s="10" t="s">
         <v>178</v>
       </c>
@@ -6966,7 +5620,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B18" s="10" t="s">
         <v>178</v>
       </c>
@@ -6986,7 +5640,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B19" s="10" t="s">
         <v>178</v>
       </c>
@@ -7006,7 +5660,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B20" s="8" t="s">
         <v>178</v>
       </c>
@@ -7026,7 +5680,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B21" s="10" t="s">
         <v>178</v>
       </c>
@@ -7046,7 +5700,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B22" s="10" t="s">
         <v>178</v>
       </c>
@@ -7066,7 +5720,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="9" customFormat="1">
       <c r="B23" s="9" t="s">
         <v>178</v>
       </c>
@@ -7086,7 +5740,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B24" s="10" t="s">
         <v>178</v>
       </c>
@@ -7106,7 +5760,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B25" s="10" t="s">
         <v>178</v>
       </c>
@@ -7126,7 +5780,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B26" s="10" t="s">
         <v>178</v>
       </c>
@@ -7146,7 +5800,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B27" s="10" t="s">
         <v>178</v>
       </c>
@@ -7166,7 +5820,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="9" customFormat="1">
       <c r="B28" s="9" t="s">
         <v>178</v>
       </c>
@@ -7186,7 +5840,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B29" s="10" t="s">
         <v>178</v>
       </c>
@@ -7206,7 +5860,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="9" customFormat="1">
       <c r="B30" s="9" t="s">
         <v>178</v>
       </c>
@@ -7232,30 +5886,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{234DAB51-A742-4A01-9A6D-03B4D63CBBCE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
     <col min="3" max="3" width="47" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7290,7 +5944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25">
       <c r="B2" s="7" t="s">
         <v>265</v>
       </c>
@@ -7301,7 +5955,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B3" s="8" t="s">
         <v>265</v>
       </c>
@@ -7321,7 +5975,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B4" s="10" t="s">
         <v>265</v>
       </c>
@@ -7341,7 +5995,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1">
       <c r="B5" s="9" t="s">
         <v>265</v>
       </c>
@@ -7352,7 +6006,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B6" s="10" t="s">
         <v>265</v>
       </c>
@@ -7372,7 +6026,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B7" s="10" t="s">
         <v>265</v>
       </c>
@@ -7392,7 +6046,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
         <v>265</v>
       </c>
@@ -7412,7 +6066,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>265</v>
       </c>
@@ -7432,7 +6086,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>265</v>
       </c>
@@ -7452,7 +6106,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B11" s="10" t="s">
         <v>265</v>
       </c>
@@ -7472,7 +6126,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B12" s="10" t="s">
         <v>265</v>
       </c>
@@ -7492,7 +6146,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B13" s="8" t="s">
         <v>265</v>
       </c>
@@ -7512,7 +6166,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B14" s="10" t="s">
         <v>265</v>
       </c>
@@ -7532,7 +6186,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1">
       <c r="B15" s="9" t="s">
         <v>265</v>
       </c>
@@ -7552,7 +6206,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1">
       <c r="B16" s="9" t="s">
         <v>265</v>
       </c>
@@ -7572,7 +6226,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="14" customFormat="1">
       <c r="B17" s="14" t="s">
         <v>265</v>
       </c>
@@ -7592,7 +6246,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="14" customFormat="1">
       <c r="B18" s="14" t="s">
         <v>265</v>
       </c>
@@ -7612,7 +6266,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="14" customFormat="1">
       <c r="B19" s="14" t="s">
         <v>265</v>
       </c>
@@ -7632,7 +6286,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="14" customFormat="1">
       <c r="B20" s="14" t="s">
         <v>265</v>
       </c>
@@ -7652,7 +6306,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B21" s="10" t="s">
         <v>265</v>
       </c>
@@ -7672,7 +6326,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="9" customFormat="1">
       <c r="B22" s="9" t="s">
         <v>265</v>
       </c>
@@ -7692,7 +6346,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="14" customFormat="1">
       <c r="B23" s="14" t="s">
         <v>265</v>
       </c>
@@ -7712,7 +6366,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="14" customFormat="1">
       <c r="B24" s="14" t="s">
         <v>265</v>
       </c>
@@ -7732,7 +6386,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="14" customFormat="1">
       <c r="B25" s="14" t="s">
         <v>265</v>
       </c>
@@ -7752,7 +6406,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="14" customFormat="1">
       <c r="B26" s="14" t="s">
         <v>265</v>
       </c>
@@ -7772,7 +6426,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="14" customFormat="1">
       <c r="B27" s="14" t="s">
         <v>265</v>
       </c>
@@ -7792,7 +6446,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="14" customFormat="1">
       <c r="B28" s="14" t="s">
         <v>265</v>
       </c>
@@ -7812,7 +6466,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" s="14" customFormat="1">
       <c r="B29" s="14" t="s">
         <v>265</v>
       </c>
@@ -7832,7 +6486,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="14" customFormat="1">
       <c r="B30" s="14" t="s">
         <v>265</v>
       </c>
@@ -7852,7 +6506,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" s="14" customFormat="1">
       <c r="B31" s="14" t="s">
         <v>265</v>
       </c>
@@ -7872,7 +6526,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" s="14" customFormat="1">
       <c r="B32" s="14" t="s">
         <v>265</v>
       </c>
@@ -7892,7 +6546,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" s="9" customFormat="1">
       <c r="B33" s="9" t="s">
         <v>265</v>
       </c>
@@ -7912,7 +6566,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" s="9" customFormat="1">
       <c r="B34" s="9" t="s">
         <v>265</v>
       </c>
@@ -7932,7 +6586,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" s="14" customFormat="1">
       <c r="B35" s="14" t="s">
         <v>265</v>
       </c>
@@ -7952,7 +6606,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" s="14" customFormat="1">
       <c r="B36" s="14" t="s">
         <v>265</v>
       </c>
@@ -7972,7 +6626,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" s="14" customFormat="1">
       <c r="B37" s="14" t="s">
         <v>265</v>
       </c>
@@ -7992,7 +6646,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B38" s="10" t="s">
         <v>265</v>
       </c>
@@ -8012,7 +6666,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="9" customFormat="1">
       <c r="B39" s="9" t="s">
         <v>265</v>
       </c>
@@ -8032,7 +6686,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" s="9" customFormat="1">
       <c r="B40" s="9" t="s">
         <v>265</v>
       </c>
@@ -8052,7 +6706,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" s="14" customFormat="1">
       <c r="B41" s="14" t="s">
         <v>265</v>
       </c>
@@ -8072,7 +6726,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" s="14" customFormat="1">
       <c r="B42" s="14" t="s">
         <v>265</v>
       </c>
@@ -8092,7 +6746,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" s="14" customFormat="1">
       <c r="B43" s="14" t="s">
         <v>265</v>
       </c>
@@ -8112,7 +6766,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" s="14" customFormat="1">
       <c r="B44" s="14" t="s">
         <v>265</v>
       </c>
@@ -8132,7 +6786,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" s="14" customFormat="1">
       <c r="B45" s="14" t="s">
         <v>265</v>
       </c>
@@ -8152,7 +6806,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" s="9" customFormat="1">
       <c r="B46" s="9" t="s">
         <v>265</v>
       </c>
@@ -8172,7 +6826,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" s="14" customFormat="1">
       <c r="B47" s="14" t="s">
         <v>265</v>
       </c>
@@ -8192,7 +6846,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" s="14" customFormat="1">
       <c r="B48" s="14" t="s">
         <v>265</v>
       </c>
@@ -8212,7 +6866,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" s="9" customFormat="1">
       <c r="B49" s="9" t="s">
         <v>265</v>
       </c>
@@ -8232,7 +6886,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" s="9" customFormat="1">
       <c r="B50" s="9" t="s">
         <v>265</v>
       </c>
@@ -8252,7 +6906,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" s="9" customFormat="1">
       <c r="B51" s="9" t="s">
         <v>265</v>
       </c>
@@ -8272,7 +6926,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" s="9" customFormat="1">
       <c r="B52" s="9" t="s">
         <v>265</v>
       </c>
@@ -8292,7 +6946,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B53" s="8" t="s">
         <v>265</v>
       </c>
@@ -8312,7 +6966,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B54" s="10" t="s">
         <v>265</v>
       </c>
@@ -8332,7 +6986,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B55" s="10" t="s">
         <v>265</v>
       </c>
@@ -8359,30 +7013,30 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72C5F53F-C18E-4425-B17F-DC2B81321F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K55"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
     <col min="3" max="3" width="47" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8417,7 +7071,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25">
       <c r="B2" s="7" t="s">
         <v>348</v>
       </c>
@@ -8428,7 +7082,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B3" s="8" t="s">
         <v>348</v>
       </c>
@@ -8448,7 +7102,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B4" s="10" t="s">
         <v>348</v>
       </c>
@@ -8468,7 +7122,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="9" customFormat="1">
       <c r="B5" s="9" t="s">
         <v>348</v>
       </c>
@@ -8479,7 +7133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B6" s="10" t="s">
         <v>348</v>
       </c>
@@ -8499,7 +7153,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B7" s="10" t="s">
         <v>348</v>
       </c>
@@ -8519,7 +7173,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="9" customFormat="1">
       <c r="B8" s="9" t="s">
         <v>348</v>
       </c>
@@ -8539,7 +7193,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>348</v>
       </c>
@@ -8559,7 +7213,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="9" customFormat="1">
       <c r="B10" s="9" t="s">
         <v>348</v>
       </c>
@@ -8579,7 +7233,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B11" s="10" t="s">
         <v>348</v>
       </c>
@@ -8599,7 +7253,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B12" s="10" t="s">
         <v>348</v>
       </c>
@@ -8619,7 +7273,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B13" s="8" t="s">
         <v>348</v>
       </c>
@@ -8639,7 +7293,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B14" s="10" t="s">
         <v>348</v>
       </c>
@@ -8659,7 +7313,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="9" customFormat="1">
       <c r="B15" s="9" t="s">
         <v>348</v>
       </c>
@@ -8679,7 +7333,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1">
       <c r="B16" s="9" t="s">
         <v>348</v>
       </c>
@@ -8699,7 +7353,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="14" customFormat="1">
       <c r="B17" s="14" t="s">
         <v>348</v>
       </c>
@@ -8719,7 +7373,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="14" customFormat="1">
       <c r="B18" s="14" t="s">
         <v>348</v>
       </c>
@@ -8739,7 +7393,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="14" customFormat="1">
       <c r="B19" s="14" t="s">
         <v>348</v>
       </c>
@@ -8759,7 +7413,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="14" customFormat="1">
       <c r="B20" s="14" t="s">
         <v>348</v>
       </c>
@@ -8779,7 +7433,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B21" s="10" t="s">
         <v>348</v>
       </c>
@@ -8799,7 +7453,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="9" customFormat="1">
       <c r="B22" s="9" t="s">
         <v>348</v>
       </c>
@@ -8819,7 +7473,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="14" customFormat="1">
       <c r="B23" s="14" t="s">
         <v>348</v>
       </c>
@@ -8839,7 +7493,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="14" customFormat="1">
       <c r="B24" s="14" t="s">
         <v>348</v>
       </c>
@@ -8859,7 +7513,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="14" customFormat="1">
       <c r="B25" s="14" t="s">
         <v>348</v>
       </c>
@@ -8879,7 +7533,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="14" customFormat="1">
       <c r="B26" s="14" t="s">
         <v>348</v>
       </c>
@@ -8899,7 +7553,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="14" customFormat="1">
       <c r="B27" s="14" t="s">
         <v>348</v>
       </c>
@@ -8919,7 +7573,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="14" customFormat="1">
       <c r="B28" s="14" t="s">
         <v>348</v>
       </c>
@@ -8939,7 +7593,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" s="14" customFormat="1">
       <c r="B29" s="14" t="s">
         <v>348</v>
       </c>
@@ -8959,7 +7613,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="14" customFormat="1">
       <c r="B30" s="14" t="s">
         <v>348</v>
       </c>
@@ -8979,7 +7633,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" s="14" customFormat="1">
       <c r="B31" s="14" t="s">
         <v>348</v>
       </c>
@@ -8999,7 +7653,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" s="14" customFormat="1">
       <c r="B32" s="14" t="s">
         <v>348</v>
       </c>
@@ -9019,7 +7673,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" s="9" customFormat="1">
       <c r="B33" s="9" t="s">
         <v>348</v>
       </c>
@@ -9039,7 +7693,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" s="9" customFormat="1">
       <c r="B34" s="9" t="s">
         <v>348</v>
       </c>
@@ -9059,7 +7713,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" s="14" customFormat="1">
       <c r="B35" s="14" t="s">
         <v>348</v>
       </c>
@@ -9079,7 +7733,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" s="14" customFormat="1">
       <c r="B36" s="14" t="s">
         <v>348</v>
       </c>
@@ -9099,7 +7753,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" s="14" customFormat="1">
       <c r="B37" s="14" t="s">
         <v>348</v>
       </c>
@@ -9119,7 +7773,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B38" s="10" t="s">
         <v>348</v>
       </c>
@@ -9139,7 +7793,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" s="9" customFormat="1">
       <c r="B39" s="9" t="s">
         <v>348</v>
       </c>
@@ -9159,7 +7813,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:8" s="9" customFormat="1">
       <c r="B40" s="9" t="s">
         <v>348</v>
       </c>
@@ -9179,7 +7833,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" s="14" customFormat="1">
       <c r="B41" s="14" t="s">
         <v>348</v>
       </c>
@@ -9199,7 +7853,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" s="14" customFormat="1">
       <c r="B42" s="14" t="s">
         <v>348</v>
       </c>
@@ -9219,7 +7873,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" s="14" customFormat="1">
       <c r="B43" s="14" t="s">
         <v>348</v>
       </c>
@@ -9239,7 +7893,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" s="14" customFormat="1">
       <c r="B44" s="14" t="s">
         <v>348</v>
       </c>
@@ -9259,7 +7913,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" s="14" customFormat="1">
       <c r="B45" s="14" t="s">
         <v>348</v>
       </c>
@@ -9279,7 +7933,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" s="9" customFormat="1">
       <c r="B46" s="9" t="s">
         <v>348</v>
       </c>
@@ -9299,7 +7953,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" s="14" customFormat="1">
       <c r="B47" s="14" t="s">
         <v>348</v>
       </c>
@@ -9319,7 +7973,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" s="14" customFormat="1">
       <c r="B48" s="14" t="s">
         <v>348</v>
       </c>
@@ -9339,7 +7993,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" s="9" customFormat="1">
       <c r="B49" s="9" t="s">
         <v>348</v>
       </c>
@@ -9359,7 +8013,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" s="9" customFormat="1">
       <c r="B50" s="9" t="s">
         <v>348</v>
       </c>
@@ -9379,7 +8033,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" s="9" customFormat="1">
       <c r="B51" s="9" t="s">
         <v>348</v>
       </c>
@@ -9399,7 +8053,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:8" s="9" customFormat="1">
       <c r="B52" s="9" t="s">
         <v>348</v>
       </c>
@@ -9419,7 +8073,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B53" s="8" t="s">
         <v>348</v>
       </c>
@@ -9439,7 +8093,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="54" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B54" s="10" t="s">
         <v>348</v>
       </c>
@@ -9459,7 +8113,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="55" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B55" s="10" t="s">
         <v>348</v>
       </c>
@@ -9486,30 +8140,30 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB866C4-1E32-4C75-BE44-327AA1627399}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="30.125" style="11" customWidth="1"/>
     <col min="2" max="2" width="25" style="11" customWidth="1"/>
     <col min="3" max="3" width="47" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="21.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.25" style="11" customWidth="1"/>
+    <col min="7" max="7" width="30.875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="31.375" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16" style="11" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="11"/>
+    <col min="10" max="10" width="10.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="6" customFormat="1" ht="89.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9544,7 +8198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="7" customFormat="1" ht="26.25">
       <c r="B2" s="7" t="s">
         <v>414</v>
       </c>
@@ -9555,7 +8209,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B3" s="8" t="s">
         <v>414</v>
       </c>
@@ -9575,7 +8229,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B4" s="10" t="s">
         <v>414</v>
       </c>
@@ -9595,7 +8249,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B5" s="10" t="s">
         <v>414</v>
       </c>
@@ -9615,7 +8269,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="9" customFormat="1">
       <c r="B6" s="9" t="s">
         <v>414</v>
       </c>
@@ -9635,7 +8289,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="9" customFormat="1">
       <c r="B7" s="9" t="s">
         <v>414</v>
       </c>
@@ -9655,7 +8309,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B8" s="10" t="s">
         <v>414</v>
       </c>
@@ -9675,7 +8329,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="9" customFormat="1">
       <c r="B9" s="9" t="s">
         <v>414</v>
       </c>
@@ -9695,7 +8349,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B10" s="10" t="s">
         <v>414</v>
       </c>
@@ -9715,7 +8369,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B11" s="10" t="s">
         <v>414</v>
       </c>
@@ -9735,7 +8389,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B12" s="10" t="s">
         <v>414</v>
       </c>
@@ -9755,7 +8409,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="23.25">
       <c r="B13" s="8" t="s">
         <v>414</v>
       </c>
@@ -9775,7 +8429,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B14" s="10" t="s">
         <v>414</v>
       </c>
@@ -9795,7 +8449,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="18.75">
       <c r="B15" s="10" t="s">
         <v>414</v>
       </c>
@@ -9815,7 +8469,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="9" customFormat="1">
       <c r="B16" s="9" t="s">
         <v>414</v>
       </c>
@@ -9835,7 +8489,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="9" customFormat="1">
       <c r="B17" s="9" t="s">
         <v>414</v>
       </c>
@@ -9855,7 +8509,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="9" customFormat="1">
       <c r="B18" s="9" t="s">
         <v>414</v>
       </c>
@@ -9875,7 +8529,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="9" customFormat="1">
       <c r="B19" s="9" t="s">
         <v>414</v>
       </c>
@@ -9895,7 +8549,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B20" s="10" t="s">
         <v>414</v>
       </c>
@@ -9915,7 +8569,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="9" customFormat="1">
       <c r="B21" s="9" t="s">
         <v>414</v>
       </c>
@@ -9935,7 +8589,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="9" customFormat="1">
       <c r="B22" s="9" t="s">
         <v>414</v>
       </c>
@@ -9955,7 +8609,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="9" customFormat="1">
       <c r="B23" s="9" t="s">
         <v>414</v>
       </c>
@@ -9975,7 +8629,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="9" customFormat="1">
       <c r="B24" s="9" t="s">
         <v>414</v>
       </c>
@@ -9995,7 +8649,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B25" s="10" t="s">
         <v>414</v>
       </c>
@@ -10015,7 +8669,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B26" s="10" t="s">
         <v>414</v>
       </c>
@@ -10035,7 +8689,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="8" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" s="8" customFormat="1" ht="23.25">
       <c r="B27" s="8" t="s">
         <v>414</v>
       </c>
@@ -10055,7 +8709,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B28" s="10" t="s">
         <v>414</v>
       </c>
@@ -10075,7 +8729,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B29" s="10" t="s">
         <v>414</v>
       </c>
@@ -10095,7 +8749,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="10" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" s="10" customFormat="1" ht="18.75">
       <c r="B30" s="10" t="s">
         <v>414</v>
       </c>
